--- a/applicant_documents/soft_decline_1/assets_liabilities.xlsx
+++ b/applicant_documents/soft_decline_1/assets_liabilities.xlsx
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Owned</t>
+          <t>Rented</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
